--- a/data/trans_camb/MCS12_SP_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,3</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,76</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,28</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,53</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,12</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,31</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,2; 22,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,08; 20,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,67; 24,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,69; 30,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,26; 27,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,94; 18,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,82; 23,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,14; 20,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,59; 17,8</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>187,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>156,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>192,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>165,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>173,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>148,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>129,32%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,7; 594,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,8; 484,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,04; 551,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,37; 376,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,15; 361,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,26; 242,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>67,72; 333,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,84; 286,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,06; 273,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,82</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,98</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 9,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 7,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,48; 10,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,53; 18,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 10,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 8,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,51; 12,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 7,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,68; 8,02</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,53%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 70,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,64; 52,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,87; 82,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,54; 93,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 49,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 43,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,35; 71,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 40,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,12; 46,28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,9</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 7,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,57; 0,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,36; 1,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 6,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,9; -0,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,58; 2,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 5,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,02; -1,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,75; 1,26</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,42%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,73%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; 41,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,96; 1,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,15; 7,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,84; 22,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,98; -2,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,26; 7,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 23,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,88; -5,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,11; 5,42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,8</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 7,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,04; 5,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 9,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 10,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,58; 5,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 33,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,05; 7,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,18; 4,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,37; 25,14</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,08%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,95%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,36; 48,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,37; 35,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 61,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,82; 43,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,21; 21,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,38; 126,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,24; 37,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,29; 21,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,11; 115,43</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 6,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,29; 4,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,65; 1,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,9; 10,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 4,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 5,69</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,86; 7,65</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,43; 3,33</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 2,96</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,64%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,71; 35,1</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,63; 19,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,39; 10,23</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,36; 38,78</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,47; 17,67</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,12; 21,81</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,95; 31,94</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,14; 13,99</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,8; 12,27</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,7; 5,78</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 2,21</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 3,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,08; 8,32</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,93; 2,49</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 9,8</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,34; 6,42</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 1,82</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 6,32</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,14%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,8; 32,57</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,03; 12,4</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,3; 18,57</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,74; 32,52</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,99; 9,79</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 37,29</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,41; 29,36</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,33; 8,2</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,95; 27,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/MCS12_SP_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,88</t>
+          <t>33,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,56</t>
+          <t>20,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,25</t>
+          <t>14,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,3</t>
+          <t>28,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,76</t>
+          <t>23,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,28</t>
+          <t>8,34</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,53</t>
+          <t>30,81</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,12</t>
+          <t>21,81</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,31</t>
+          <t>11,49</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,2; 22,28</t>
+          <t>21,41; 45,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,08; 20,78</t>
+          <t>7,02; 32,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,67; 24,22</t>
+          <t>-1,16; 26,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,69; 30,35</t>
+          <t>14,3; 40,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 27,5</t>
+          <t>11,15; 36,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 18,08</t>
+          <t>-2,43; 18,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,82; 23,34</t>
+          <t>21,79; 38,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,14; 20,65</t>
+          <t>12,91; 30,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,59; 17,8</t>
+          <t>3,45; 19,3</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>187,45%</t>
+          <t>140,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>156,13%</t>
+          <t>84,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>192,48%</t>
+          <t>59,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>165,23%</t>
+          <t>86,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>143,43%</t>
+          <t>72,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>88,0%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>173,69%</t>
+          <t>109,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>148,31%</t>
+          <t>77,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>129,32%</t>
+          <t>40,86%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,7; 594,63</t>
+          <t>69,15; 267,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,8; 484,65</t>
+          <t>21,35; 179,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,04; 551,72</t>
+          <t>-3,55; 148,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>57,37; 376,72</t>
+          <t>36,81; 151,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,15; 361,7</t>
+          <t>28,04; 136,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,26; 242,58</t>
+          <t>-6,33; 75,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>67,72; 333,1</t>
+          <t>67,14; 165,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,84; 286,42</t>
+          <t>38,92; 126,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,06; 273,36</t>
+          <t>10,3; 81,57</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>8,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,82</t>
+          <t>11,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>-3,33</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 9,16</t>
+          <t>-1,69; 9,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 7,34</t>
+          <t>2,6; 13,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 10,85</t>
+          <t>-8,5; 3,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,53; 18,21</t>
+          <t>6,13; 18,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 10,02</t>
+          <t>-0,23; 11,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 8,42</t>
+          <t>-9,41; 1,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 12,41</t>
+          <t>4,0; 12,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 7,02</t>
+          <t>2,52; 10,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 8,02</t>
+          <t>-7,41; 0,63</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>37,45%</t>
+          <t>-5,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,7%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>-9,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>46,13%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>-7,46%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 70,36</t>
+          <t>-3,85; 27,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 52,45</t>
+          <t>6,15; 37,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 82,65</t>
+          <t>-20,04; 10,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,54; 93,85</t>
+          <t>11,17; 38,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 49,9</t>
+          <t>-0,44; 24,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 43,0</t>
+          <t>-17,97; 2,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,35; 71,57</t>
+          <t>8,68; 28,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 40,3</t>
+          <t>5,49; 24,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,12; 46,28</t>
+          <t>-15,89; 1,46</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-6,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,86</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-9,45</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-7,93</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 7,28</t>
+          <t>-2,83; 5,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 0,26</t>
+          <t>-2,89; 6,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 1,29</t>
+          <t>-13,41; -1,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 6,14</t>
+          <t>-5,68; 3,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,9; -0,63</t>
+          <t>-7,94; 1,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 2,11</t>
+          <t>-13,87; -5,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 5,57</t>
+          <t>-3,48; 3,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,02; -1,25</t>
+          <t>-4,26; 2,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 1,26</t>
+          <t>-11,68; -4,39</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-16,42%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-11,38%</t>
+          <t>-15,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>-2,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-16,35%</t>
+          <t>-6,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-5,56%</t>
+          <t>-16,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-16,27%</t>
+          <t>-1,51%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-7,73%</t>
+          <t>-16,05%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 41,66</t>
+          <t>-6,22; 14,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,96; 1,71</t>
+          <t>-6,37; 15,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,15; 7,0</t>
+          <t>-30,6; -3,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 22,25</t>
+          <t>-9,85; 5,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,98; -2,26</t>
+          <t>-14,06; 2,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 7,69</t>
+          <t>-23,9; -10,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 23,94</t>
+          <t>-6,8; 6,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,88; -5,34</t>
+          <t>-8,34; 4,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 5,42</t>
+          <t>-23,13; -9,36</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,89</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 7,36</t>
+          <t>-4,05; 6,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 5,46</t>
+          <t>-6,66; 3,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 9,3</t>
+          <t>-9,3; 2,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,53; 10,39</t>
+          <t>-3,04; 7,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 5,15</t>
+          <t>-10,7; -0,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 33,59</t>
+          <t>-7,12; 16,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,05; 7,63</t>
+          <t>-1,96; 5,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 4,25</t>
+          <t>-7,25; 0,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,37; 25,14</t>
+          <t>-5,07; 12,5</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>-3,29%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>25,69%</t>
+          <t>-7,03%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>-10,66%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>38,08%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>-7,3%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>-0,28%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 48,81</t>
+          <t>-9,08; 17,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 35,43</t>
+          <t>-14,73; 9,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 61,54</t>
+          <t>-20,35; 4,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,82; 43,59</t>
+          <t>-5,54; 15,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 21,61</t>
+          <t>-19,29; -0,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 126,47</t>
+          <t>-13,08; 31,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,24; 37,65</t>
+          <t>-3,91; 12,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 21,43</t>
+          <t>-14,62; 0,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,11; 115,43</t>
+          <t>-10,53; 26,04</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-1,59</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 6,94</t>
+          <t>-0,19; 8,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 4,16</t>
+          <t>1,04; 10,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 1,97</t>
+          <t>-6,95; 1,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,9; 10,11</t>
+          <t>1,06; 9,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 4,52</t>
+          <t>-2,79; 6,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 5,69</t>
+          <t>-5,6; 3,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,86; 7,65</t>
+          <t>1,43; 7,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 3,33</t>
+          <t>0,33; 6,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,96</t>
+          <t>-4,9; 1,52</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-7,64%</t>
+          <t>-5,78%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>-1,88%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>-3,15%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 35,1</t>
+          <t>-0,39; 19,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 19,88</t>
+          <t>1,8; 23,17</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 10,23</t>
+          <t>-14,77; 3,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,36; 38,78</t>
+          <t>1,91; 19,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 17,67</t>
+          <t>-4,92; 11,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 21,81</t>
+          <t>-9,78; 6,09</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6,95; 31,94</t>
+          <t>2,79; 16,12</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 13,99</t>
+          <t>0,82; 13,16</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 12,27</t>
+          <t>-9,25; 3,04</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>-2,88</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,78</t>
+          <t>1,01; 6,22</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 2,21</t>
+          <t>1,38; 6,37</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,33</t>
+          <t>-6,11; -0,5</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,08; 8,32</t>
+          <t>2,33; 7,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,49</t>
+          <t>-2,84; 2,05</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,4; 9,8</t>
+          <t>-5,7; 2,3</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,42</t>
+          <t>2,18; 5,66</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,82</t>
+          <t>-0,03; 3,53</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,32</t>
+          <t>-4,93; 0,01</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>-7,53%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>-0,18%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>-5,73%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>-6,02%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>8,8; 32,57</t>
+          <t>2,27; 14,94</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 12,4</t>
+          <t>3,12; 15,48</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 18,57</t>
+          <t>-13,95; -1,19</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>14,74; 32,52</t>
+          <t>4,37; 13,66</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 9,79</t>
+          <t>-5,21; 3,96</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>1,16; 37,29</t>
+          <t>-10,56; 4,4</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>14,41; 29,36</t>
+          <t>4,82; 12,06</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 8,2</t>
+          <t>-0,02; 7,48</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2,95; 27,98</t>
+          <t>-10,07; 0,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/MCS12_SP_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,54</t>
+          <t>11,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,25</t>
+          <t>10,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,18</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,03</t>
+          <t>18,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,44</t>
+          <t>8,91</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,81</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,81</t>
+          <t>9,78</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,49</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,41; 45,51</t>
+          <t>5,61; 16,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,02; 32,58</t>
+          <t>4,94; 15,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 26,29</t>
+          <t>-4,99; 5,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,3; 40,24</t>
+          <t>13,27; 23,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,15; 36,27</t>
+          <t>4,03; 14,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 18,83</t>
+          <t>-5,95; 3,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,79; 38,95</t>
+          <t>11,46; 19,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,91; 30,03</t>
+          <t>5,74; 13,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 19,3</t>
+          <t>-3,73; 3,97</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>140,7%</t>
+          <t>30,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>84,93%</t>
+          <t>27,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>59,48%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>86,29%</t>
+          <t>39,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>72,16%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>-1,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>109,59%</t>
+          <t>35,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>77,59%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>40,86%</t>
+          <t>0,17%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>69,15; 267,42</t>
+          <t>13,72; 46,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,35; 179,24</t>
+          <t>12,18; 44,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 148,69</t>
+          <t>-11,86; 16,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,81; 151,43</t>
+          <t>26,56; 52,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,04; 136,03</t>
+          <t>7,96; 31,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 75,6</t>
+          <t>-11,85; 9,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>67,14; 165,59</t>
+          <t>25,28; 46,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,92; 126,05</t>
+          <t>12,67; 33,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,3; 81,57</t>
+          <t>-8,34; 9,89</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,26</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-10,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,96</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>-7,73</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,25</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>-9,82</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 9,98</t>
+          <t>0,32; 9,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 13,82</t>
+          <t>-1,09; 8,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 3,95</t>
+          <t>-26,6; -0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 18,13</t>
+          <t>-3,23; 6,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 11,64</t>
+          <t>-7,17; 2,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 1,16</t>
+          <t>-12,16; -3,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 12,17</t>
+          <t>-0,07; 6,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 10,38</t>
+          <t>-2,91; 3,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 0,63</t>
+          <t>-21,9; -3,33</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,85%</t>
+          <t>-23,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>-4,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,37%</t>
+          <t>-13,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-7,46%</t>
+          <t>-19,72%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 27,85</t>
+          <t>0,54; 22,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,15; 37,78</t>
+          <t>-2,68; 19,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,04; 10,7</t>
+          <t>-60,62; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,17; 38,9</t>
+          <t>-5,43; 11,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 24,89</t>
+          <t>-12,4; 3,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 2,43</t>
+          <t>-20,74; -6,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,68; 28,28</t>
+          <t>-0,25; 13,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,49; 24,37</t>
+          <t>-5,7; 7,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 1,46</t>
+          <t>-43,97; -6,83</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,46</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-5,94</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,45</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-7,93</t>
+          <t>2,12</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 5,66</t>
+          <t>-3,64; 7,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 6,28</t>
+          <t>-6,25; 4,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,41; -1,26</t>
+          <t>-9,39; 2,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 3,1</t>
+          <t>-0,73; 9,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 1,21</t>
+          <t>-10,85; -0,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,87; -5,35</t>
+          <t>-8,96; 23,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 3,08</t>
+          <t>-0,58; 7,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 2,19</t>
+          <t>-7,24; 0,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,68; -4,39</t>
+          <t>-5,95; 20,92</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>-2,31%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-15,06%</t>
+          <t>-7,14%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,26%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-6,01%</t>
+          <t>-10,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-16,92%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-1,51%</t>
+          <t>-6,99%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-16,05%</t>
+          <t>4,31%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 14,17</t>
+          <t>-8,11; 18,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 15,14</t>
+          <t>-13,49; 10,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,6; -3,29</t>
+          <t>-20,14; 4,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 5,8</t>
+          <t>-1,33; 17,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 2,12</t>
+          <t>-18,8; -1,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,9; -10,08</t>
+          <t>-16,08; 45,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 6,4</t>
+          <t>-1,21; 15,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 4,56</t>
+          <t>-14,18; 0,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,13; -9,36</t>
+          <t>-12,08; 43,97</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,02</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,06</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 6,78</t>
+          <t>1,67; 10,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 3,91</t>
+          <t>2,89; 11,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 2,08</t>
+          <t>-6,99; 2,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 7,63</t>
+          <t>4,18; 13,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,7; -0,45</t>
+          <t>-1,41; 7,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 16,15</t>
+          <t>-3,56; 9,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 5,76</t>
+          <t>4,06; 10,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 0,2</t>
+          <t>1,87; 8,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 12,5</t>
+          <t>-3,54; 6,18</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,29%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-7,03%</t>
+          <t>-5,09%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,66%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-7,3%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-0,28%</t>
+          <t>-0,12%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 17,2</t>
+          <t>3,41; 22,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 9,81</t>
+          <t>5,8; 25,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 4,94</t>
+          <t>-14,43; 4,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 15,3</t>
+          <t>7,32; 24,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,29; -0,82</t>
+          <t>-2,51; 13,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 31,72</t>
+          <t>-6,14; 18,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 12,58</t>
+          <t>7,65; 20,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 0,37</t>
+          <t>3,56; 16,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 26,04</t>
+          <t>-6,74; 12,19</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>-4,58</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,28</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-2,35</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 8,25</t>
+          <t>3,3; 8,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,04; 10,07</t>
+          <t>2,48; 7,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 1,7</t>
+          <t>-14,63; -0,57</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,06; 9,92</t>
+          <t>5,52; 10,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 6,13</t>
+          <t>-1,98; 2,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 3,15</t>
+          <t>-4,3; 8,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,43; 7,86</t>
+          <t>4,82; 8,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,33; 6,41</t>
+          <t>0,94; 4,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 1,52</t>
+          <t>-6,95; 2,14</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-5,78%</t>
+          <t>-10,6%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-1,88%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-3,15%</t>
+          <t>-4,82%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 19,0</t>
+          <t>7,34; 19,86</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1,8; 23,17</t>
+          <t>5,5; 17,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 3,86</t>
+          <t>-33,36; -1,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,91; 19,04</t>
+          <t>9,96; 19,25</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 11,62</t>
+          <t>-3,57; 5,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 6,09</t>
+          <t>-7,82; 15,89</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2,79; 16,12</t>
+          <t>9,69; 17,42</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>0,82; 13,16</t>
+          <t>1,87; 9,22</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 3,04</t>
+          <t>-14,1; 4,39</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,67</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>3,79</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-3,19</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>4,62</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-3,04</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>4,17</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>1,84</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-2,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 6,22</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 6,37</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-6,11; -0,5</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>2,33; 7,11</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-2,84; 2,05</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-5,7; 2,3</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>2,18; 5,66</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,03; 3,53</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-4,93; 0,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>8,67%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>8,94%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-7,53%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>8,69%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-0,18%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-5,73%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>8,72%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>3,84%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-6,02%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>2,27; 14,94</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>3,12; 15,48</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-13,95; -1,19</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>4,37; 13,66</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-5,21; 3,96</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-10,56; 4,4</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>4,82; 12,06</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-0,02; 7,48</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-10,07; 0,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/MCS12_SP_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,61; 16,58</t>
+          <t>6,96; 16,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 15,82</t>
+          <t>5,17; 15,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 5,93</t>
+          <t>-4,78; 6,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,27; 23,67</t>
+          <t>13,89; 24,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 14,28</t>
+          <t>4,0; 14,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 3,9</t>
+          <t>-5,5; 4,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,46; 19,07</t>
+          <t>11,01; 18,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 13,5</t>
+          <t>5,73; 13,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 3,97</t>
+          <t>-3,65; 3,84</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,72; 46,93</t>
+          <t>16,98; 47,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,18; 44,72</t>
+          <t>13,38; 44,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 16,65</t>
+          <t>-11,86; 17,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,56; 52,92</t>
+          <t>27,57; 53,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,96; 31,86</t>
+          <t>7,95; 32,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 9,06</t>
+          <t>-10,98; 10,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,28; 46,5</t>
+          <t>24,76; 45,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,67; 33,31</t>
+          <t>12,77; 32,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 9,89</t>
+          <t>-8,07; 9,39</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 9,11</t>
+          <t>-0,05; 9,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 8,02</t>
+          <t>-1,57; 7,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,6; -0,0</t>
+          <t>-25,91; 0,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 6,07</t>
+          <t>-2,66; 6,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 2,03</t>
+          <t>-6,84; 2,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,16; -3,72</t>
+          <t>-12,11; -3,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 6,3</t>
+          <t>0,31; 7,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 3,47</t>
+          <t>-2,99; 3,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-21,9; -3,33</t>
+          <t>-23,02; -3,69</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 22,02</t>
+          <t>-0,09; 23,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 19,15</t>
+          <t>-3,54; 18,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,62; 0,0</t>
+          <t>-59,27; 0,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 11,29</t>
+          <t>-4,52; 11,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 3,65</t>
+          <t>-11,67; 4,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,74; -6,98</t>
+          <t>-20,6; -7,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 13,06</t>
+          <t>0,66; 14,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 7,22</t>
+          <t>-5,85; 7,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,97; -6,83</t>
+          <t>-46,15; -7,44</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 7,46</t>
+          <t>-3,26; 6,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 4,33</t>
+          <t>-5,95; 3,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 2,08</t>
+          <t>-8,9; 2,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 9,35</t>
+          <t>-0,94; 9,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,85; -0,71</t>
+          <t>-10,95; -0,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 23,86</t>
+          <t>-8,48; 25,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 7,16</t>
+          <t>-0,53; 6,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 0,36</t>
+          <t>-6,96; 0,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 20,92</t>
+          <t>-6,43; 19,12</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 18,41</t>
+          <t>-7,1; 16,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 10,81</t>
+          <t>-12,85; 9,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 4,97</t>
+          <t>-18,93; 6,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 17,78</t>
+          <t>-1,81; 18,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,8; -1,36</t>
+          <t>-19,0; -0,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 45,06</t>
+          <t>-15,32; 48,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 15,33</t>
+          <t>-1,01; 14,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 0,73</t>
+          <t>-13,65; 0,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 43,97</t>
+          <t>-13,1; 40,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 10,09</t>
+          <t>0,63; 10,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 11,57</t>
+          <t>2,73; 11,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 2,21</t>
+          <t>-7,49; 2,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,18; 13,07</t>
+          <t>4,44; 13,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 7,35</t>
+          <t>-1,34; 7,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 9,98</t>
+          <t>-2,99; 10,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,06; 10,41</t>
+          <t>3,68; 10,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,87; 8,05</t>
+          <t>1,75; 8,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 6,18</t>
+          <t>-3,79; 5,0</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,41; 22,77</t>
+          <t>1,26; 23,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,8; 25,75</t>
+          <t>5,53; 26,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 4,97</t>
+          <t>-15,1; 6,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,32; 24,86</t>
+          <t>7,71; 24,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 13,72</t>
+          <t>-2,37; 13,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 18,36</t>
+          <t>-5,26; 18,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,65; 20,71</t>
+          <t>6,95; 21,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,56; 16,17</t>
+          <t>3,26; 16,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 12,19</t>
+          <t>-7,19; 9,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,3; 8,39</t>
+          <t>3,27; 8,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,36</t>
+          <t>2,6; 7,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,63; -0,57</t>
+          <t>-15,06; -0,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,52; 10,23</t>
+          <t>5,17; 9,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,89</t>
+          <t>-1,89; 2,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 8,54</t>
+          <t>-4,44; 8,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,82; 8,34</t>
+          <t>5,04; 8,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,42</t>
+          <t>1,01; 4,73</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 2,14</t>
+          <t>-7,19; 2,0</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>7,34; 19,86</t>
+          <t>7,29; 19,58</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>5,5; 17,51</t>
+          <t>5,75; 17,82</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-33,36; -1,36</t>
+          <t>-33,67; -2,26</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>9,96; 19,25</t>
+          <t>9,41; 18,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 5,5</t>
+          <t>-3,37; 5,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 15,89</t>
+          <t>-8,09; 15,27</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>9,69; 17,42</t>
+          <t>10,18; 17,89</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,87; 9,22</t>
+          <t>2,11; 9,93</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 4,39</t>
+          <t>-14,56; 4,23</t>
         </is>
       </c>
     </row>
